--- a/solution-template/sample-provider/sample-category/sample-solution/presales/cost-breakdown.xlsx
+++ b/solution-template/sample-provider/sample-category/sample-solution/presales/cost-breakdown.xlsx
@@ -131,7 +131,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
@@ -150,9 +150,18 @@
     <xf numFmtId="0" fontId="6" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="4" fontId="6" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="4" fontId="6" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="6" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -596,7 +605,7 @@
       </c>
       <c r="C7" s="4" t="inlineStr">
         <is>
-          <t>November 11, 2025</t>
+          <t>November 15, 2025</t>
         </is>
       </c>
     </row>
@@ -738,951 +747,953 @@
         </is>
       </c>
     </row>
-    <row r="2" ht="26" customHeight="1">
-      <c r="A2" s="8" t="inlineStr">
+    <row r="2">
+      <c r="A2" s="6" t="inlineStr">
         <is>
           <t>Cloud Infrastructure</t>
         </is>
       </c>
-      <c r="B2" s="8" t="inlineStr">
+      <c r="B2" s="6" t="inlineStr">
         <is>
           <t>Azure VM Standard_D4s_v5 (Web Tier)</t>
         </is>
       </c>
-      <c r="C2" s="8" t="inlineStr">
+      <c r="C2" s="6" t="inlineStr">
         <is>
           <t>4 vCPU 16GB RAM for web/presentation layer</t>
         </is>
       </c>
-      <c r="D2" s="8" t="inlineStr">
+      <c r="D2" s="6" t="inlineStr">
         <is>
           <t>Instance</t>
         </is>
       </c>
-      <c r="E2" s="9" t="n">
+      <c r="E2" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="F2" s="10" t="n">
+      <c r="F2" s="9" t="n">
         <v>138</v>
       </c>
-      <c r="G2" s="10" t="n">
+      <c r="G2" s="9" t="n">
         <v>138</v>
       </c>
-      <c r="H2" s="8" t="inlineStr">
+      <c r="H2" s="6" t="inlineStr">
         <is>
           <t>Monthly</t>
         </is>
       </c>
-      <c r="I2" s="10" t="n">
+      <c r="I2" s="9" t="n">
         <v>1656</v>
       </c>
-      <c r="J2" s="10" t="n">
+      <c r="J2" s="9" t="n">
         <v>1656</v>
       </c>
-      <c r="K2" s="10" t="n">
+      <c r="K2" s="9" t="n">
         <v>1656</v>
       </c>
-      <c r="L2" s="8" t="inlineStr">
+      <c r="L2" s="6" t="inlineStr">
         <is>
           <t>Small: 1 instance, Medium: 2 instances (HA), Large: 6 instances (multi-region)</t>
         </is>
       </c>
     </row>
-    <row r="3" ht="26" customHeight="1">
-      <c r="A3" s="8" t="inlineStr">
+    <row r="3">
+      <c r="A3" s="7" t="inlineStr">
         <is>
           <t>Cloud Infrastructure</t>
         </is>
       </c>
-      <c r="B3" s="8" t="inlineStr">
+      <c r="B3" s="7" t="inlineStr">
         <is>
           <t>Azure VM Standard_D8s_v5 (App Tier)</t>
         </is>
       </c>
-      <c r="C3" s="8" t="inlineStr">
+      <c r="C3" s="7" t="inlineStr">
         <is>
           <t>8 vCPU 32GB RAM for application/business logic layer</t>
         </is>
       </c>
-      <c r="D3" s="8" t="inlineStr">
+      <c r="D3" s="7" t="inlineStr">
         <is>
           <t>Instance</t>
         </is>
       </c>
-      <c r="E3" s="9" t="n">
+      <c r="E3" s="10" t="n">
         <v>1</v>
       </c>
-      <c r="F3" s="10" t="n">
+      <c r="F3" s="11" t="n">
         <v>276</v>
       </c>
-      <c r="G3" s="10" t="n">
+      <c r="G3" s="11" t="n">
         <v>276</v>
       </c>
-      <c r="H3" s="8" t="inlineStr">
+      <c r="H3" s="7" t="inlineStr">
         <is>
           <t>Monthly</t>
         </is>
       </c>
-      <c r="I3" s="10" t="n">
+      <c r="I3" s="11" t="n">
         <v>3312</v>
       </c>
-      <c r="J3" s="10" t="n">
+      <c r="J3" s="11" t="n">
         <v>3312</v>
       </c>
-      <c r="K3" s="10" t="n">
+      <c r="K3" s="11" t="n">
         <v>3312</v>
       </c>
-      <c r="L3" s="8" t="inlineStr">
+      <c r="L3" s="7" t="inlineStr">
         <is>
           <t>Small: 1 instance, Medium: 2 instances (HA), Large: 6 instances (multi-region)</t>
         </is>
       </c>
     </row>
-    <row r="4" ht="26" customHeight="1">
-      <c r="A4" s="8" t="inlineStr">
+    <row r="4">
+      <c r="A4" s="6" t="inlineStr">
         <is>
           <t>Cloud Infrastructure</t>
         </is>
       </c>
-      <c r="B4" s="8" t="inlineStr">
+      <c r="B4" s="6" t="inlineStr">
         <is>
           <t>Azure SQL Database Standard S3</t>
         </is>
       </c>
-      <c r="C4" s="8" t="inlineStr">
+      <c r="C4" s="6" t="inlineStr">
         <is>
           <t>Managed SQL database with 100 DTUs for data tier</t>
         </is>
       </c>
-      <c r="D4" s="8" t="inlineStr">
+      <c r="D4" s="6" t="inlineStr">
         <is>
           <t>Instance</t>
         </is>
       </c>
-      <c r="E4" s="9" t="n">
+      <c r="E4" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="F4" s="10" t="n">
+      <c r="F4" s="9" t="n">
         <v>200</v>
       </c>
-      <c r="G4" s="10" t="n">
+      <c r="G4" s="9" t="n">
         <v>200</v>
       </c>
-      <c r="H4" s="8" t="inlineStr">
+      <c r="H4" s="6" t="inlineStr">
         <is>
           <t>Monthly</t>
         </is>
       </c>
-      <c r="I4" s="10" t="n">
+      <c r="I4" s="9" t="n">
         <v>2400</v>
       </c>
-      <c r="J4" s="10" t="n">
+      <c r="J4" s="9" t="n">
         <v>2400</v>
       </c>
-      <c r="K4" s="10" t="n">
+      <c r="K4" s="9" t="n">
         <v>2400</v>
       </c>
-      <c r="L4" s="8" t="inlineStr">
+      <c r="L4" s="6" t="inlineStr">
         <is>
           <t>Small/Medium: Single database, Large: 2 databases (read replicas)</t>
         </is>
       </c>
     </row>
-    <row r="5" ht="26" customHeight="1">
-      <c r="A5" s="8" t="inlineStr">
+    <row r="5">
+      <c r="A5" s="7" t="inlineStr">
         <is>
           <t>Cloud Infrastructure</t>
         </is>
       </c>
-      <c r="B5" s="8" t="inlineStr">
+      <c r="B5" s="7" t="inlineStr">
         <is>
           <t>Azure Redis Cache Standard C2</t>
         </is>
       </c>
-      <c r="C5" s="8" t="inlineStr">
+      <c r="C5" s="7" t="inlineStr">
         <is>
           <t>2.5GB cache for session state and data caching</t>
         </is>
       </c>
-      <c r="D5" s="8" t="inlineStr">
+      <c r="D5" s="7" t="inlineStr">
         <is>
           <t>Instance</t>
         </is>
       </c>
-      <c r="E5" s="9" t="n">
+      <c r="E5" s="10" t="n">
         <v>1</v>
       </c>
-      <c r="F5" s="10" t="n">
+      <c r="F5" s="11" t="n">
         <v>75</v>
       </c>
-      <c r="G5" s="10" t="n">
+      <c r="G5" s="11" t="n">
         <v>75</v>
       </c>
-      <c r="H5" s="8" t="inlineStr">
+      <c r="H5" s="7" t="inlineStr">
         <is>
           <t>Monthly</t>
         </is>
       </c>
-      <c r="I5" s="10" t="n">
+      <c r="I5" s="11" t="n">
         <v>900</v>
       </c>
-      <c r="J5" s="10" t="n">
+      <c r="J5" s="11" t="n">
         <v>900</v>
       </c>
-      <c r="K5" s="10" t="n">
+      <c r="K5" s="11" t="n">
         <v>900</v>
       </c>
-      <c r="L5" s="8" t="inlineStr">
+      <c r="L5" s="7" t="inlineStr">
         <is>
           <t>All sizes: Single cache instance sufficient</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="8" t="inlineStr">
+      <c r="A6" s="6" t="inlineStr">
         <is>
           <t>Cloud Infrastructure</t>
         </is>
       </c>
-      <c r="B6" s="8" t="inlineStr">
+      <c r="B6" s="6" t="inlineStr">
         <is>
           <t>Azure Load Balancer Standard</t>
         </is>
       </c>
-      <c r="C6" s="8" t="inlineStr">
+      <c r="C6" s="6" t="inlineStr">
         <is>
           <t>Standard tier load balancer for web tier</t>
         </is>
       </c>
-      <c r="D6" s="8" t="inlineStr">
+      <c r="D6" s="6" t="inlineStr">
         <is>
           <t>Instance</t>
         </is>
       </c>
-      <c r="E6" s="9" t="n">
+      <c r="E6" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="F6" s="10" t="n">
+      <c r="F6" s="9" t="n">
         <v>25</v>
       </c>
-      <c r="G6" s="10" t="n">
+      <c r="G6" s="9" t="n">
         <v>25</v>
       </c>
-      <c r="H6" s="8" t="inlineStr">
+      <c r="H6" s="6" t="inlineStr">
         <is>
           <t>Monthly</t>
         </is>
       </c>
-      <c r="I6" s="10" t="n">
+      <c r="I6" s="9" t="n">
         <v>300</v>
       </c>
-      <c r="J6" s="10" t="n">
+      <c r="J6" s="9" t="n">
         <v>300</v>
       </c>
-      <c r="K6" s="10" t="n">
+      <c r="K6" s="9" t="n">
         <v>300</v>
       </c>
-      <c r="L6" s="8" t="inlineStr">
+      <c r="L6" s="6" t="inlineStr">
         <is>
           <t>All sizes: Single load balancer</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="8" t="inlineStr">
+      <c r="A7" s="7" t="inlineStr">
         <is>
           <t>Cloud Infrastructure</t>
         </is>
       </c>
-      <c r="B7" s="8" t="inlineStr">
+      <c r="B7" s="7" t="inlineStr">
         <is>
           <t>Azure Application Gateway WAF_v2</t>
         </is>
       </c>
-      <c r="C7" s="8" t="inlineStr">
+      <c r="C7" s="7" t="inlineStr">
         <is>
           <t>Web application firewall with SSL offloading</t>
         </is>
       </c>
-      <c r="D7" s="8" t="inlineStr">
+      <c r="D7" s="7" t="inlineStr">
         <is>
           <t>Instance</t>
         </is>
       </c>
-      <c r="E7" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="F7" s="10" t="n">
+      <c r="E7" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" s="11" t="n">
         <v>150</v>
       </c>
-      <c r="G7" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="H7" s="8" t="inlineStr">
+      <c r="G7" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" s="7" t="inlineStr">
         <is>
           <t>Monthly</t>
         </is>
       </c>
-      <c r="I7" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="K7" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="L7" s="8" t="inlineStr">
+      <c r="I7" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" s="7" t="inlineStr">
         <is>
           <t>Small: Not included, Medium/Large: WAF protection</t>
         </is>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="8" t="inlineStr">
+      <c r="A8" s="6" t="inlineStr">
         <is>
           <t>Cloud Infrastructure</t>
         </is>
       </c>
-      <c r="B8" s="8" t="inlineStr">
+      <c r="B8" s="6" t="inlineStr">
         <is>
           <t>Azure Blob Storage Standard</t>
         </is>
       </c>
-      <c r="C8" s="8" t="inlineStr">
+      <c r="C8" s="6" t="inlineStr">
         <is>
           <t>Object storage for files backups and logs</t>
         </is>
       </c>
-      <c r="D8" s="8" t="inlineStr">
+      <c r="D8" s="6" t="inlineStr">
         <is>
           <t>GB</t>
         </is>
       </c>
-      <c r="E8" s="9" t="n">
+      <c r="E8" s="8" t="n">
         <v>500</v>
       </c>
-      <c r="F8" s="10" t="n">
+      <c r="F8" s="9" t="n">
         <v>0.0184</v>
       </c>
-      <c r="G8" s="10" t="n">
+      <c r="G8" s="9" t="n">
         <v>9.199999999999999</v>
       </c>
-      <c r="H8" s="8" t="inlineStr">
+      <c r="H8" s="6" t="inlineStr">
         <is>
           <t>Monthly</t>
         </is>
       </c>
-      <c r="I8" s="10" t="n">
+      <c r="I8" s="9" t="n">
         <v>110.4</v>
       </c>
-      <c r="J8" s="10" t="n">
+      <c r="J8" s="9" t="n">
         <v>110.4</v>
       </c>
-      <c r="K8" s="10" t="n">
+      <c r="K8" s="9" t="n">
         <v>110.4</v>
       </c>
-      <c r="L8" s="8" t="inlineStr">
+      <c r="L8" s="6" t="inlineStr">
         <is>
           <t>Storage scales with data volume and user base</t>
         </is>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="8" t="inlineStr">
+      <c r="A9" s="7" t="inlineStr">
         <is>
           <t>Cloud Infrastructure</t>
         </is>
       </c>
-      <c r="B9" s="8" t="inlineStr">
+      <c r="B9" s="7" t="inlineStr">
         <is>
           <t>Azure CDN Standard</t>
         </is>
       </c>
-      <c r="C9" s="8" t="inlineStr">
+      <c r="C9" s="7" t="inlineStr">
         <is>
           <t>Content delivery network for static assets</t>
         </is>
       </c>
-      <c r="D9" s="8" t="inlineStr">
+      <c r="D9" s="7" t="inlineStr">
         <is>
           <t>GB</t>
         </is>
       </c>
-      <c r="E9" s="9" t="n">
+      <c r="E9" s="10" t="n">
         <v>100</v>
       </c>
-      <c r="F9" s="10" t="n">
+      <c r="F9" s="11" t="n">
         <v>0.081</v>
       </c>
-      <c r="G9" s="10" t="n">
+      <c r="G9" s="11" t="n">
         <v>8.1</v>
       </c>
-      <c r="H9" s="8" t="inlineStr">
+      <c r="H9" s="7" t="inlineStr">
         <is>
           <t>Monthly</t>
         </is>
       </c>
-      <c r="I9" s="10" t="n">
+      <c r="I9" s="11" t="n">
         <v>97.2</v>
       </c>
-      <c r="J9" s="10" t="n">
+      <c r="J9" s="11" t="n">
         <v>97.2</v>
       </c>
-      <c r="K9" s="10" t="n">
+      <c r="K9" s="11" t="n">
         <v>97.2</v>
       </c>
-      <c r="L9" s="8" t="inlineStr">
+      <c r="L9" s="7" t="inlineStr">
         <is>
           <t>CDN bandwidth scales with user traffic</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="8" t="inlineStr">
+      <c r="A10" s="6" t="inlineStr">
         <is>
           <t>Cloud Infrastructure</t>
         </is>
       </c>
-      <c r="B10" s="8" t="inlineStr">
+      <c r="B10" s="6" t="inlineStr">
         <is>
           <t>Azure Virtual Network Gateway VpnGw2</t>
         </is>
       </c>
-      <c r="C10" s="8" t="inlineStr">
+      <c r="C10" s="6" t="inlineStr">
         <is>
           <t>Site-to-site VPN for hybrid connectivity</t>
         </is>
       </c>
-      <c r="D10" s="8" t="inlineStr">
+      <c r="D10" s="6" t="inlineStr">
         <is>
           <t>Instance</t>
         </is>
       </c>
-      <c r="E10" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="F10" s="10" t="n">
+      <c r="E10" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" s="9" t="n">
         <v>250</v>
       </c>
-      <c r="G10" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="H10" s="8" t="inlineStr">
+      <c r="G10" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" s="6" t="inlineStr">
         <is>
           <t>Monthly</t>
         </is>
       </c>
-      <c r="I10" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="K10" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="L10" s="8" t="inlineStr">
+      <c r="I10" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" s="6" t="inlineStr">
         <is>
           <t>Small: Not included, Medium/Large: Hybrid connectivity</t>
         </is>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="8" t="inlineStr">
+      <c r="A11" s="7" t="inlineStr">
         <is>
           <t>Cloud Infrastructure</t>
         </is>
       </c>
-      <c r="B11" s="8" t="inlineStr">
+      <c r="B11" s="7" t="inlineStr">
         <is>
           <t>Azure Monitor</t>
         </is>
       </c>
-      <c r="C11" s="8" t="inlineStr">
+      <c r="C11" s="7" t="inlineStr">
         <is>
           <t>Application insights and log analytics</t>
         </is>
       </c>
-      <c r="D11" s="8" t="inlineStr">
+      <c r="D11" s="7" t="inlineStr">
         <is>
           <t>GB</t>
         </is>
       </c>
-      <c r="E11" s="9" t="n">
+      <c r="E11" s="10" t="n">
         <v>5</v>
       </c>
-      <c r="F11" s="10" t="n">
+      <c r="F11" s="11" t="n">
         <v>2.3</v>
       </c>
-      <c r="G11" s="10" t="n">
+      <c r="G11" s="11" t="n">
         <v>11.5</v>
       </c>
-      <c r="H11" s="8" t="inlineStr">
+      <c r="H11" s="7" t="inlineStr">
         <is>
           <t>Monthly</t>
         </is>
       </c>
-      <c r="I11" s="10" t="n">
+      <c r="I11" s="11" t="n">
         <v>138</v>
       </c>
-      <c r="J11" s="10" t="n">
+      <c r="J11" s="11" t="n">
         <v>138</v>
       </c>
-      <c r="K11" s="10" t="n">
+      <c r="K11" s="11" t="n">
         <v>138</v>
       </c>
-      <c r="L11" s="8" t="inlineStr">
+      <c r="L11" s="7" t="inlineStr">
         <is>
           <t>Log volume increases with scale and detail level</t>
         </is>
       </c>
     </row>
+    <row r="12"/>
     <row r="13">
-      <c r="A13" s="8" t="inlineStr">
+      <c r="A13" s="7" t="inlineStr">
         <is>
           <t>Software Licenses &amp; Subscriptions</t>
         </is>
       </c>
-      <c r="B13" s="8" t="inlineStr">
+      <c r="B13" s="7" t="inlineStr">
         <is>
           <t>Microsoft 365 Business Standard</t>
         </is>
       </c>
-      <c r="C13" s="8" t="inlineStr">
+      <c r="C13" s="7" t="inlineStr">
         <is>
           <t>Productivity suite for end users</t>
         </is>
       </c>
-      <c r="D13" s="8" t="inlineStr">
+      <c r="D13" s="7" t="inlineStr">
         <is>
           <t>Users</t>
         </is>
       </c>
-      <c r="E13" s="9" t="n">
+      <c r="E13" s="10" t="n">
         <v>25</v>
       </c>
-      <c r="F13" s="10" t="n">
+      <c r="F13" s="11" t="n">
         <v>12.5</v>
       </c>
-      <c r="G13" s="10" t="n">
+      <c r="G13" s="11" t="n">
         <v>312.5</v>
       </c>
-      <c r="H13" s="8" t="inlineStr">
+      <c r="H13" s="7" t="inlineStr">
         <is>
           <t>Monthly</t>
         </is>
       </c>
-      <c r="I13" s="10" t="n">
+      <c r="I13" s="11" t="n">
         <v>3750</v>
       </c>
-      <c r="J13" s="10" t="n">
+      <c r="J13" s="11" t="n">
         <v>3750</v>
       </c>
-      <c r="K13" s="10" t="n">
+      <c r="K13" s="11" t="n">
         <v>3750</v>
       </c>
-      <c r="L13" s="8" t="inlineStr">
+      <c r="L13" s="7" t="inlineStr">
         <is>
           <t>Per-user licensing based on organization size</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="8" t="inlineStr">
+      <c r="A14" s="6" t="inlineStr">
         <is>
           <t>Software Licenses &amp; Subscriptions</t>
         </is>
       </c>
-      <c r="B14" s="8" t="inlineStr">
+      <c r="B14" s="6" t="inlineStr">
         <is>
           <t>Azure DevOps Services Basic</t>
         </is>
       </c>
-      <c r="C14" s="8" t="inlineStr">
+      <c r="C14" s="6" t="inlineStr">
         <is>
           <t>Development platform and CI/CD pipelines</t>
         </is>
       </c>
-      <c r="D14" s="8" t="inlineStr">
+      <c r="D14" s="6" t="inlineStr">
         <is>
           <t>Users</t>
         </is>
       </c>
-      <c r="E14" s="9" t="n">
+      <c r="E14" s="8" t="n">
         <v>5</v>
       </c>
-      <c r="F14" s="10" t="n">
+      <c r="F14" s="9" t="n">
         <v>6</v>
       </c>
-      <c r="G14" s="10" t="n">
+      <c r="G14" s="9" t="n">
         <v>30</v>
       </c>
-      <c r="H14" s="8" t="inlineStr">
+      <c r="H14" s="6" t="inlineStr">
         <is>
           <t>Monthly</t>
         </is>
       </c>
-      <c r="I14" s="10" t="n">
+      <c r="I14" s="9" t="n">
         <v>360</v>
       </c>
-      <c r="J14" s="10" t="n">
+      <c r="J14" s="9" t="n">
         <v>360</v>
       </c>
-      <c r="K14" s="10" t="n">
+      <c r="K14" s="9" t="n">
         <v>360</v>
       </c>
-      <c r="L14" s="8" t="inlineStr">
+      <c r="L14" s="6" t="inlineStr">
         <is>
           <t>Development team size scales with project complexity</t>
         </is>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="8" t="inlineStr">
+      <c r="A15" s="7" t="inlineStr">
         <is>
           <t>Software Licenses &amp; Subscriptions</t>
         </is>
       </c>
-      <c r="B15" s="8" t="inlineStr">
+      <c r="B15" s="7" t="inlineStr">
         <is>
           <t>GitHub Enterprise</t>
         </is>
       </c>
-      <c r="C15" s="8" t="inlineStr">
+      <c r="C15" s="7" t="inlineStr">
         <is>
           <t>Source code management and collaboration</t>
         </is>
       </c>
-      <c r="D15" s="8" t="inlineStr">
+      <c r="D15" s="7" t="inlineStr">
         <is>
           <t>Users</t>
         </is>
       </c>
-      <c r="E15" s="9" t="n">
+      <c r="E15" s="10" t="n">
         <v>5</v>
       </c>
-      <c r="F15" s="10" t="n">
+      <c r="F15" s="11" t="n">
         <v>21</v>
       </c>
-      <c r="G15" s="10" t="n">
+      <c r="G15" s="11" t="n">
         <v>105</v>
       </c>
-      <c r="H15" s="8" t="inlineStr">
+      <c r="H15" s="7" t="inlineStr">
         <is>
           <t>Monthly</t>
         </is>
       </c>
-      <c r="I15" s="10" t="n">
+      <c r="I15" s="11" t="n">
         <v>1260</v>
       </c>
-      <c r="J15" s="10" t="n">
+      <c r="J15" s="11" t="n">
         <v>1260</v>
       </c>
-      <c r="K15" s="10" t="n">
+      <c r="K15" s="11" t="n">
         <v>1260</v>
       </c>
-      <c r="L15" s="8" t="inlineStr">
+      <c r="L15" s="7" t="inlineStr">
         <is>
           <t>Development team licensing</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="8" t="inlineStr">
+      <c r="A16" s="6" t="inlineStr">
         <is>
           <t>Software Licenses &amp; Subscriptions</t>
         </is>
       </c>
-      <c r="B16" s="8" t="inlineStr">
+      <c r="B16" s="6" t="inlineStr">
         <is>
           <t>Datadog Pro</t>
         </is>
       </c>
-      <c r="C16" s="8" t="inlineStr">
+      <c r="C16" s="6" t="inlineStr">
         <is>
           <t>APM and infrastructure monitoring</t>
         </is>
       </c>
-      <c r="D16" s="8" t="inlineStr">
+      <c r="D16" s="6" t="inlineStr">
         <is>
           <t>Host</t>
         </is>
       </c>
-      <c r="E16" s="9" t="n">
+      <c r="E16" s="8" t="n">
         <v>5</v>
       </c>
-      <c r="F16" s="10" t="n">
+      <c r="F16" s="9" t="n">
         <v>23</v>
       </c>
-      <c r="G16" s="10" t="n">
+      <c r="G16" s="9" t="n">
         <v>115</v>
       </c>
-      <c r="H16" s="8" t="inlineStr">
+      <c r="H16" s="6" t="inlineStr">
         <is>
           <t>Monthly</t>
         </is>
       </c>
-      <c r="I16" s="10" t="n">
+      <c r="I16" s="9" t="n">
         <v>1380</v>
       </c>
-      <c r="J16" s="10" t="n">
+      <c r="J16" s="9" t="n">
         <v>1380</v>
       </c>
-      <c r="K16" s="10" t="n">
+      <c r="K16" s="9" t="n">
         <v>1380</v>
       </c>
-      <c r="L16" s="8" t="inlineStr">
+      <c r="L16" s="6" t="inlineStr">
         <is>
           <t>Monitoring hosts scale with infrastructure</t>
         </is>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="8" t="inlineStr">
+      <c r="A17" s="7" t="inlineStr">
         <is>
           <t>Software Licenses &amp; Subscriptions</t>
         </is>
       </c>
-      <c r="B17" s="8" t="inlineStr">
+      <c r="B17" s="7" t="inlineStr">
         <is>
           <t>Auth0 Professional</t>
         </is>
       </c>
-      <c r="C17" s="8" t="inlineStr">
+      <c r="C17" s="7" t="inlineStr">
         <is>
           <t>Identity and access management platform</t>
         </is>
       </c>
-      <c r="D17" s="8" t="inlineStr">
+      <c r="D17" s="7" t="inlineStr">
         <is>
           <t>Users</t>
         </is>
       </c>
-      <c r="E17" s="9" t="n">
+      <c r="E17" s="10" t="n">
         <v>1000</v>
       </c>
-      <c r="F17" s="10" t="n">
+      <c r="F17" s="11" t="n">
         <v>0.07000000000000001</v>
       </c>
-      <c r="G17" s="10" t="n">
+      <c r="G17" s="11" t="n">
         <v>70</v>
       </c>
-      <c r="H17" s="8" t="inlineStr">
+      <c r="H17" s="7" t="inlineStr">
         <is>
           <t>Monthly</t>
         </is>
       </c>
-      <c r="I17" s="10" t="n">
+      <c r="I17" s="11" t="n">
         <v>840</v>
       </c>
-      <c r="J17" s="10" t="n">
+      <c r="J17" s="11" t="n">
         <v>840</v>
       </c>
-      <c r="K17" s="10" t="n">
+      <c r="K17" s="11" t="n">
         <v>840</v>
       </c>
-      <c r="L17" s="8" t="inlineStr">
+      <c r="L17" s="7" t="inlineStr">
         <is>
           <t>Monthly Active Users (MAU) pricing</t>
         </is>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="8" t="inlineStr">
+      <c r="A18" s="6" t="inlineStr">
         <is>
           <t>Software Licenses &amp; Subscriptions</t>
         </is>
       </c>
-      <c r="B18" s="8" t="inlineStr">
+      <c r="B18" s="6" t="inlineStr">
         <is>
           <t>SendGrid Pro</t>
         </is>
       </c>
-      <c r="C18" s="8" t="inlineStr">
+      <c r="C18" s="6" t="inlineStr">
         <is>
           <t>Transactional email delivery service</t>
         </is>
       </c>
-      <c r="D18" s="8" t="inlineStr">
+      <c r="D18" s="6" t="inlineStr">
         <is>
           <t>Emails</t>
         </is>
       </c>
-      <c r="E18" s="9" t="n">
+      <c r="E18" s="8" t="n">
         <v>50000</v>
       </c>
-      <c r="F18" s="10" t="n">
+      <c r="F18" s="9" t="n">
         <v>0.0001</v>
       </c>
-      <c r="G18" s="10" t="n">
+      <c r="G18" s="9" t="n">
         <v>5</v>
       </c>
-      <c r="H18" s="8" t="inlineStr">
+      <c r="H18" s="6" t="inlineStr">
         <is>
           <t>Monthly</t>
         </is>
       </c>
-      <c r="I18" s="10" t="n">
+      <c r="I18" s="9" t="n">
         <v>60</v>
       </c>
-      <c r="J18" s="10" t="n">
+      <c r="J18" s="9" t="n">
         <v>60</v>
       </c>
-      <c r="K18" s="10" t="n">
+      <c r="K18" s="9" t="n">
         <v>60</v>
       </c>
-      <c r="L18" s="8" t="inlineStr">
+      <c r="L18" s="6" t="inlineStr">
         <is>
           <t>Email volume based on user activity</t>
         </is>
       </c>
     </row>
+    <row r="19"/>
     <row r="20">
-      <c r="A20" s="8" t="inlineStr">
+      <c r="A20" s="6" t="inlineStr">
         <is>
           <t>Support &amp; Maintenance</t>
         </is>
       </c>
-      <c r="B20" s="8" t="inlineStr">
+      <c r="B20" s="6" t="inlineStr">
         <is>
           <t>Azure Professional Direct Support</t>
         </is>
       </c>
-      <c r="C20" s="8" t="inlineStr">
+      <c r="C20" s="6" t="inlineStr">
         <is>
           <t>24x7 Azure support with 1-hour response</t>
         </is>
       </c>
-      <c r="D20" s="8" t="inlineStr">
+      <c r="D20" s="6" t="inlineStr">
         <is>
           <t>Instance</t>
         </is>
       </c>
-      <c r="E20" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="F20" s="10" t="n">
+      <c r="E20" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" s="9" t="n">
         <v>1000</v>
       </c>
-      <c r="G20" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="H20" s="8" t="inlineStr">
+      <c r="G20" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" s="6" t="inlineStr">
         <is>
           <t>Monthly</t>
         </is>
       </c>
-      <c r="I20" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J20" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="K20" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="L20" s="8" t="inlineStr">
+      <c r="I20" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" s="6" t="inlineStr">
         <is>
           <t>Small: Community support, Medium/Large: Professional support</t>
         </is>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="8" t="inlineStr">
+      <c r="A21" s="7" t="inlineStr">
         <is>
           <t>Support &amp; Maintenance</t>
         </is>
       </c>
-      <c r="B21" s="8" t="inlineStr">
+      <c r="B21" s="7" t="inlineStr">
         <is>
           <t>Datadog Support</t>
         </is>
       </c>
-      <c r="C21" s="8" t="inlineStr">
+      <c r="C21" s="7" t="inlineStr">
         <is>
           <t>Standard support included in Pro tier</t>
         </is>
       </c>
-      <c r="D21" s="8" t="inlineStr">
+      <c r="D21" s="7" t="inlineStr">
         <is>
           <t>Included</t>
         </is>
       </c>
-      <c r="E21" s="9" t="n">
+      <c r="E21" s="10" t="n">
         <v>1</v>
       </c>
-      <c r="F21" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="G21" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="H21" s="8" t="inlineStr">
+      <c r="F21" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G21" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H21" s="7" t="inlineStr">
         <is>
           <t>Monthly</t>
         </is>
       </c>
-      <c r="I21" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J21" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="K21" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="L21" s="8" t="inlineStr">
+      <c r="I21" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K21" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L21" s="7" t="inlineStr">
         <is>
           <t>Support included with Datadog Pro subscription</t>
         </is>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="8" t="inlineStr">
+      <c r="A22" s="6" t="inlineStr">
         <is>
           <t>Support &amp; Maintenance</t>
         </is>
       </c>
-      <c r="B22" s="8" t="inlineStr">
+      <c r="B22" s="6" t="inlineStr">
         <is>
           <t>Application Performance Tuning</t>
         </is>
       </c>
-      <c r="C22" s="8" t="inlineStr">
+      <c r="C22" s="6" t="inlineStr">
         <is>
           <t>Quarterly performance review and optimization</t>
         </is>
       </c>
-      <c r="D22" s="8" t="inlineStr">
+      <c r="D22" s="6" t="inlineStr">
         <is>
           <t>Hours</t>
         </is>
       </c>
-      <c r="E22" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="F22" s="10" t="n">
+      <c r="E22" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" s="9" t="n">
         <v>200</v>
       </c>
-      <c r="G22" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="H22" s="8" t="inlineStr">
+      <c r="G22" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H22" s="6" t="inlineStr">
         <is>
           <t>Quarterly</t>
         </is>
       </c>
-      <c r="I22" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J22" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="K22" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="L22" s="8" t="inlineStr">
+      <c r="I22" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J22" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K22" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L22" s="6" t="inlineStr">
         <is>
           <t>Small: None, Medium: 8 hours/quarter, Large: 16 hours/quarter</t>
         </is>
@@ -1718,27 +1729,27 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="11" t="inlineStr">
+      <c r="A1" s="12" t="inlineStr">
         <is>
           <t>SIZING GUIDANCE - REFERENCE ONLY</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="12" t="inlineStr">
+      <c r="A2" s="13" t="inlineStr">
         <is>
           <t>Use this tab to understand typical quantities for Small/Medium/Large projects.</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="12" t="inlineStr">
+      <c r="A3" s="13" t="inlineStr">
         <is>
           <t>Adjust quantities in Cost Breakdown tab based on client requirements.</t>
         </is>
       </c>
     </row>
-    <row r="5">
+    <row r="5" ht="32" customHeight="1">
       <c r="A5" s="5" t="inlineStr">
         <is>
           <t>Category</t>
@@ -1776,589 +1787,591 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="8" t="inlineStr">
+      <c r="A6" s="6" t="inlineStr">
         <is>
           <t>Cloud Infrastructure</t>
         </is>
       </c>
-      <c r="B6" s="8" t="inlineStr">
+      <c r="B6" s="6" t="inlineStr">
         <is>
           <t>Azure VM Standard_D4s_v5 (Web Tier)</t>
         </is>
       </c>
-      <c r="C6" s="8" t="inlineStr">
+      <c r="C6" s="6" t="inlineStr">
         <is>
           <t>Instance</t>
         </is>
       </c>
-      <c r="D6" s="8" t="n">
+      <c r="D6" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="E6" s="8" t="n">
+      <c r="E6" s="6" t="n">
         <v>2</v>
       </c>
-      <c r="F6" s="8" t="n">
+      <c r="F6" s="6" t="n">
         <v>6</v>
       </c>
-      <c r="G6" s="8" t="inlineStr">
+      <c r="G6" s="6" t="inlineStr">
         <is>
           <t>Small: 1 instance, Medium: 2 instances (HA), Large: 6 instances (multi-region)</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="8" t="inlineStr">
+      <c r="A7" s="7" t="inlineStr">
         <is>
           <t>Cloud Infrastructure</t>
         </is>
       </c>
-      <c r="B7" s="8" t="inlineStr">
+      <c r="B7" s="7" t="inlineStr">
         <is>
           <t>Azure VM Standard_D8s_v5 (App Tier)</t>
         </is>
       </c>
-      <c r="C7" s="8" t="inlineStr">
+      <c r="C7" s="7" t="inlineStr">
         <is>
           <t>Instance</t>
         </is>
       </c>
-      <c r="D7" s="8" t="n">
+      <c r="D7" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="E7" s="8" t="n">
+      <c r="E7" s="7" t="n">
         <v>2</v>
       </c>
-      <c r="F7" s="8" t="n">
+      <c r="F7" s="7" t="n">
         <v>6</v>
       </c>
-      <c r="G7" s="8" t="inlineStr">
+      <c r="G7" s="7" t="inlineStr">
         <is>
           <t>Small: 1 instance, Medium: 2 instances (HA), Large: 6 instances (multi-region)</t>
         </is>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="8" t="inlineStr">
+      <c r="A8" s="6" t="inlineStr">
         <is>
           <t>Cloud Infrastructure</t>
         </is>
       </c>
-      <c r="B8" s="8" t="inlineStr">
+      <c r="B8" s="6" t="inlineStr">
         <is>
           <t>Azure SQL Database Standard S3</t>
         </is>
       </c>
-      <c r="C8" s="8" t="inlineStr">
+      <c r="C8" s="6" t="inlineStr">
         <is>
           <t>Instance</t>
         </is>
       </c>
-      <c r="D8" s="8" t="n">
+      <c r="D8" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="E8" s="8" t="n">
+      <c r="E8" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="F8" s="8" t="n">
+      <c r="F8" s="6" t="n">
         <v>2</v>
       </c>
-      <c r="G8" s="8" t="inlineStr">
+      <c r="G8" s="6" t="inlineStr">
         <is>
           <t>Small/Medium: Single database, Large: 2 databases (read replicas)</t>
         </is>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="8" t="inlineStr">
+      <c r="A9" s="7" t="inlineStr">
         <is>
           <t>Cloud Infrastructure</t>
         </is>
       </c>
-      <c r="B9" s="8" t="inlineStr">
+      <c r="B9" s="7" t="inlineStr">
         <is>
           <t>Azure Redis Cache Standard C2</t>
         </is>
       </c>
-      <c r="C9" s="8" t="inlineStr">
+      <c r="C9" s="7" t="inlineStr">
         <is>
           <t>Instance</t>
         </is>
       </c>
-      <c r="D9" s="8" t="n">
+      <c r="D9" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="E9" s="8" t="n">
+      <c r="E9" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="F9" s="8" t="n">
+      <c r="F9" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="G9" s="8" t="inlineStr">
+      <c r="G9" s="7" t="inlineStr">
         <is>
           <t>All sizes: Single cache instance sufficient</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="8" t="inlineStr">
+      <c r="A10" s="6" t="inlineStr">
         <is>
           <t>Cloud Infrastructure</t>
         </is>
       </c>
-      <c r="B10" s="8" t="inlineStr">
+      <c r="B10" s="6" t="inlineStr">
         <is>
           <t>Azure Load Balancer Standard</t>
         </is>
       </c>
-      <c r="C10" s="8" t="inlineStr">
+      <c r="C10" s="6" t="inlineStr">
         <is>
           <t>Instance</t>
         </is>
       </c>
-      <c r="D10" s="8" t="n">
+      <c r="D10" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="E10" s="8" t="n">
+      <c r="E10" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="F10" s="8" t="n">
+      <c r="F10" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="G10" s="8" t="inlineStr">
+      <c r="G10" s="6" t="inlineStr">
         <is>
           <t>All sizes: Single load balancer</t>
         </is>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="8" t="inlineStr">
+      <c r="A11" s="7" t="inlineStr">
         <is>
           <t>Cloud Infrastructure</t>
         </is>
       </c>
-      <c r="B11" s="8" t="inlineStr">
+      <c r="B11" s="7" t="inlineStr">
         <is>
           <t>Azure Application Gateway WAF_v2</t>
         </is>
       </c>
-      <c r="C11" s="8" t="inlineStr">
+      <c r="C11" s="7" t="inlineStr">
         <is>
           <t>Instance</t>
         </is>
       </c>
-      <c r="D11" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="E11" s="8" t="n">
+      <c r="D11" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="F11" s="8" t="n">
+      <c r="F11" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="G11" s="8" t="inlineStr">
+      <c r="G11" s="7" t="inlineStr">
         <is>
           <t>Small: Not included, Medium/Large: WAF protection</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="8" t="inlineStr">
+      <c r="A12" s="6" t="inlineStr">
         <is>
           <t>Cloud Infrastructure</t>
         </is>
       </c>
-      <c r="B12" s="8" t="inlineStr">
+      <c r="B12" s="6" t="inlineStr">
         <is>
           <t>Azure Blob Storage Standard</t>
         </is>
       </c>
-      <c r="C12" s="8" t="inlineStr">
+      <c r="C12" s="6" t="inlineStr">
         <is>
           <t>GB</t>
         </is>
       </c>
-      <c r="D12" s="8" t="n">
+      <c r="D12" s="6" t="n">
         <v>500</v>
       </c>
-      <c r="E12" s="8" t="n">
+      <c r="E12" s="6" t="n">
         <v>2000</v>
       </c>
-      <c r="F12" s="8" t="n">
+      <c r="F12" s="6" t="n">
         <v>10000</v>
       </c>
-      <c r="G12" s="8" t="inlineStr">
+      <c r="G12" s="6" t="inlineStr">
         <is>
           <t>Storage scales with data volume and user base</t>
         </is>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="8" t="inlineStr">
+      <c r="A13" s="7" t="inlineStr">
         <is>
           <t>Cloud Infrastructure</t>
         </is>
       </c>
-      <c r="B13" s="8" t="inlineStr">
+      <c r="B13" s="7" t="inlineStr">
         <is>
           <t>Azure CDN Standard</t>
         </is>
       </c>
-      <c r="C13" s="8" t="inlineStr">
+      <c r="C13" s="7" t="inlineStr">
         <is>
           <t>GB</t>
         </is>
       </c>
-      <c r="D13" s="8" t="n">
+      <c r="D13" s="7" t="n">
         <v>100</v>
       </c>
-      <c r="E13" s="8" t="n">
+      <c r="E13" s="7" t="n">
         <v>500</v>
       </c>
-      <c r="F13" s="8" t="n">
+      <c r="F13" s="7" t="n">
         <v>2000</v>
       </c>
-      <c r="G13" s="8" t="inlineStr">
+      <c r="G13" s="7" t="inlineStr">
         <is>
           <t>CDN bandwidth scales with user traffic</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="8" t="inlineStr">
+      <c r="A14" s="6" t="inlineStr">
         <is>
           <t>Cloud Infrastructure</t>
         </is>
       </c>
-      <c r="B14" s="8" t="inlineStr">
+      <c r="B14" s="6" t="inlineStr">
         <is>
           <t>Azure Virtual Network Gateway VpnGw2</t>
         </is>
       </c>
-      <c r="C14" s="8" t="inlineStr">
+      <c r="C14" s="6" t="inlineStr">
         <is>
           <t>Instance</t>
         </is>
       </c>
-      <c r="D14" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="E14" s="8" t="n">
+      <c r="D14" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="F14" s="8" t="n">
+      <c r="F14" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="G14" s="8" t="inlineStr">
+      <c r="G14" s="6" t="inlineStr">
         <is>
           <t>Small: Not included, Medium/Large: Hybrid connectivity</t>
         </is>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="8" t="inlineStr">
+      <c r="A15" s="7" t="inlineStr">
         <is>
           <t>Cloud Infrastructure</t>
         </is>
       </c>
-      <c r="B15" s="8" t="inlineStr">
+      <c r="B15" s="7" t="inlineStr">
         <is>
           <t>Azure Monitor</t>
         </is>
       </c>
-      <c r="C15" s="8" t="inlineStr">
+      <c r="C15" s="7" t="inlineStr">
         <is>
           <t>GB</t>
         </is>
       </c>
-      <c r="D15" s="8" t="n">
+      <c r="D15" s="7" t="n">
         <v>5</v>
       </c>
-      <c r="E15" s="8" t="n">
+      <c r="E15" s="7" t="n">
         <v>20</v>
       </c>
-      <c r="F15" s="8" t="n">
+      <c r="F15" s="7" t="n">
         <v>100</v>
       </c>
-      <c r="G15" s="8" t="inlineStr">
+      <c r="G15" s="7" t="inlineStr">
         <is>
           <t>Log volume increases with scale and detail level</t>
         </is>
       </c>
     </row>
+    <row r="16"/>
     <row r="17">
-      <c r="A17" s="8" t="inlineStr">
+      <c r="A17" s="7" t="inlineStr">
         <is>
           <t>Software Licenses &amp; Subscriptions</t>
         </is>
       </c>
-      <c r="B17" s="8" t="inlineStr">
+      <c r="B17" s="7" t="inlineStr">
         <is>
           <t>Microsoft 365 Business Standard</t>
         </is>
       </c>
-      <c r="C17" s="8" t="inlineStr">
+      <c r="C17" s="7" t="inlineStr">
         <is>
           <t>Users</t>
         </is>
       </c>
-      <c r="D17" s="8" t="n">
+      <c r="D17" s="7" t="n">
         <v>25</v>
       </c>
-      <c r="E17" s="8" t="n">
+      <c r="E17" s="7" t="n">
         <v>100</v>
       </c>
-      <c r="F17" s="8" t="n">
+      <c r="F17" s="7" t="n">
         <v>300</v>
       </c>
-      <c r="G17" s="8" t="inlineStr">
+      <c r="G17" s="7" t="inlineStr">
         <is>
           <t>Per-user licensing based on organization size</t>
         </is>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="8" t="inlineStr">
+      <c r="A18" s="6" t="inlineStr">
         <is>
           <t>Software Licenses &amp; Subscriptions</t>
         </is>
       </c>
-      <c r="B18" s="8" t="inlineStr">
+      <c r="B18" s="6" t="inlineStr">
         <is>
           <t>Azure DevOps Services Basic</t>
         </is>
       </c>
-      <c r="C18" s="8" t="inlineStr">
+      <c r="C18" s="6" t="inlineStr">
         <is>
           <t>Users</t>
         </is>
       </c>
-      <c r="D18" s="8" t="n">
+      <c r="D18" s="6" t="n">
         <v>5</v>
       </c>
-      <c r="E18" s="8" t="n">
+      <c r="E18" s="6" t="n">
         <v>10</v>
       </c>
-      <c r="F18" s="8" t="n">
+      <c r="F18" s="6" t="n">
         <v>25</v>
       </c>
-      <c r="G18" s="8" t="inlineStr">
+      <c r="G18" s="6" t="inlineStr">
         <is>
           <t>Development team size scales with project complexity</t>
         </is>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="8" t="inlineStr">
+      <c r="A19" s="7" t="inlineStr">
         <is>
           <t>Software Licenses &amp; Subscriptions</t>
         </is>
       </c>
-      <c r="B19" s="8" t="inlineStr">
+      <c r="B19" s="7" t="inlineStr">
         <is>
           <t>GitHub Enterprise</t>
         </is>
       </c>
-      <c r="C19" s="8" t="inlineStr">
+      <c r="C19" s="7" t="inlineStr">
         <is>
           <t>Users</t>
         </is>
       </c>
-      <c r="D19" s="8" t="n">
+      <c r="D19" s="7" t="n">
         <v>5</v>
       </c>
-      <c r="E19" s="8" t="n">
+      <c r="E19" s="7" t="n">
         <v>10</v>
       </c>
-      <c r="F19" s="8" t="n">
+      <c r="F19" s="7" t="n">
         <v>25</v>
       </c>
-      <c r="G19" s="8" t="inlineStr">
+      <c r="G19" s="7" t="inlineStr">
         <is>
           <t>Development team licensing</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="8" t="inlineStr">
+      <c r="A20" s="6" t="inlineStr">
         <is>
           <t>Software Licenses &amp; Subscriptions</t>
         </is>
       </c>
-      <c r="B20" s="8" t="inlineStr">
+      <c r="B20" s="6" t="inlineStr">
         <is>
           <t>Datadog Pro</t>
         </is>
       </c>
-      <c r="C20" s="8" t="inlineStr">
+      <c r="C20" s="6" t="inlineStr">
         <is>
           <t>Host</t>
         </is>
       </c>
-      <c r="D20" s="8" t="n">
+      <c r="D20" s="6" t="n">
         <v>5</v>
       </c>
-      <c r="E20" s="8" t="n">
+      <c r="E20" s="6" t="n">
         <v>15</v>
       </c>
-      <c r="F20" s="8" t="n">
+      <c r="F20" s="6" t="n">
         <v>40</v>
       </c>
-      <c r="G20" s="8" t="inlineStr">
+      <c r="G20" s="6" t="inlineStr">
         <is>
           <t>Monitoring hosts scale with infrastructure</t>
         </is>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="8" t="inlineStr">
+      <c r="A21" s="7" t="inlineStr">
         <is>
           <t>Software Licenses &amp; Subscriptions</t>
         </is>
       </c>
-      <c r="B21" s="8" t="inlineStr">
+      <c r="B21" s="7" t="inlineStr">
         <is>
           <t>Auth0 Professional</t>
         </is>
       </c>
-      <c r="C21" s="8" t="inlineStr">
+      <c r="C21" s="7" t="inlineStr">
         <is>
           <t>Users</t>
         </is>
       </c>
-      <c r="D21" s="8" t="n">
+      <c r="D21" s="7" t="n">
         <v>1000</v>
       </c>
-      <c r="E21" s="8" t="n">
+      <c r="E21" s="7" t="n">
         <v>5000</v>
       </c>
-      <c r="F21" s="8" t="n">
+      <c r="F21" s="7" t="n">
         <v>20000</v>
       </c>
-      <c r="G21" s="8" t="inlineStr">
+      <c r="G21" s="7" t="inlineStr">
         <is>
           <t>Monthly Active Users (MAU) pricing</t>
         </is>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="8" t="inlineStr">
+      <c r="A22" s="6" t="inlineStr">
         <is>
           <t>Software Licenses &amp; Subscriptions</t>
         </is>
       </c>
-      <c r="B22" s="8" t="inlineStr">
+      <c r="B22" s="6" t="inlineStr">
         <is>
           <t>SendGrid Pro</t>
         </is>
       </c>
-      <c r="C22" s="8" t="inlineStr">
+      <c r="C22" s="6" t="inlineStr">
         <is>
           <t>Emails</t>
         </is>
       </c>
-      <c r="D22" s="8" t="n">
+      <c r="D22" s="6" t="n">
         <v>50000</v>
       </c>
-      <c r="E22" s="8" t="n">
+      <c r="E22" s="6" t="n">
         <v>200000</v>
       </c>
-      <c r="F22" s="8" t="n">
+      <c r="F22" s="6" t="n">
         <v>1000000</v>
       </c>
-      <c r="G22" s="8" t="inlineStr">
+      <c r="G22" s="6" t="inlineStr">
         <is>
           <t>Email volume based on user activity</t>
         </is>
       </c>
     </row>
+    <row r="23"/>
     <row r="24">
-      <c r="A24" s="8" t="inlineStr">
+      <c r="A24" s="6" t="inlineStr">
         <is>
           <t>Support &amp; Maintenance</t>
         </is>
       </c>
-      <c r="B24" s="8" t="inlineStr">
+      <c r="B24" s="6" t="inlineStr">
         <is>
           <t>Azure Professional Direct Support</t>
         </is>
       </c>
-      <c r="C24" s="8" t="inlineStr">
+      <c r="C24" s="6" t="inlineStr">
         <is>
           <t>Instance</t>
         </is>
       </c>
-      <c r="D24" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="E24" s="8" t="n">
+      <c r="D24" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E24" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="F24" s="8" t="n">
+      <c r="F24" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="G24" s="8" t="inlineStr">
+      <c r="G24" s="6" t="inlineStr">
         <is>
           <t>Small: Community support, Medium/Large: Professional support</t>
         </is>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="8" t="inlineStr">
+      <c r="A25" s="7" t="inlineStr">
         <is>
           <t>Support &amp; Maintenance</t>
         </is>
       </c>
-      <c r="B25" s="8" t="inlineStr">
+      <c r="B25" s="7" t="inlineStr">
         <is>
           <t>Datadog Support</t>
         </is>
       </c>
-      <c r="C25" s="8" t="inlineStr">
+      <c r="C25" s="7" t="inlineStr">
         <is>
           <t>Included</t>
         </is>
       </c>
-      <c r="D25" s="8" t="n">
+      <c r="D25" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="E25" s="8" t="n">
+      <c r="E25" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="F25" s="8" t="n">
+      <c r="F25" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="G25" s="8" t="inlineStr">
+      <c r="G25" s="7" t="inlineStr">
         <is>
           <t>Support included with Datadog Pro subscription</t>
         </is>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="8" t="inlineStr">
+      <c r="A26" s="6" t="inlineStr">
         <is>
           <t>Support &amp; Maintenance</t>
         </is>
       </c>
-      <c r="B26" s="8" t="inlineStr">
+      <c r="B26" s="6" t="inlineStr">
         <is>
           <t>Application Performance Tuning</t>
         </is>
       </c>
-      <c r="C26" s="8" t="inlineStr">
+      <c r="C26" s="6" t="inlineStr">
         <is>
           <t>Hours</t>
         </is>
       </c>
-      <c r="D26" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="E26" s="8" t="n">
+      <c r="D26" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E26" s="6" t="n">
         <v>8</v>
       </c>
-      <c r="F26" s="8" t="n">
+      <c r="F26" s="6" t="n">
         <v>16</v>
       </c>
-      <c r="G26" s="8" t="inlineStr">
+      <c r="G26" s="6" t="inlineStr">
         <is>
           <t>Small: None, Medium: 8 hours/quarter, Large: 16 hours/quarter</t>
         </is>
@@ -2396,13 +2409,13 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="13" t="inlineStr">
+      <c r="A1" s="14" t="inlineStr">
         <is>
           <t>3-YEAR TOTAL COST OF OWNERSHIP</t>
         </is>
       </c>
     </row>
-    <row r="3">
+    <row r="3" ht="32" customHeight="1">
       <c r="A3" s="5" t="inlineStr">
         <is>
           <t>Category</t>
@@ -2430,78 +2443,78 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="8" t="inlineStr">
+      <c r="A4" s="6" t="inlineStr">
         <is>
           <t>Cloud Infrastructure</t>
         </is>
       </c>
-      <c r="B4" s="10" t="n">
+      <c r="B4" s="9" t="n">
         <v>8913.6</v>
       </c>
-      <c r="C4" s="10" t="n">
+      <c r="C4" s="9" t="n">
         <v>8913.6</v>
       </c>
-      <c r="D4" s="10" t="n">
+      <c r="D4" s="9" t="n">
         <v>8913.6</v>
       </c>
-      <c r="E4" s="10" t="n">
+      <c r="E4" s="9" t="n">
         <v>26740.8</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="8" t="inlineStr">
+      <c r="A5" s="7" t="inlineStr">
         <is>
           <t>Software Licenses &amp; Subscriptions</t>
         </is>
       </c>
-      <c r="B5" s="10" t="n">
+      <c r="B5" s="11" t="n">
         <v>7650</v>
       </c>
-      <c r="C5" s="10" t="n">
+      <c r="C5" s="11" t="n">
         <v>7650</v>
       </c>
-      <c r="D5" s="10" t="n">
+      <c r="D5" s="11" t="n">
         <v>7650</v>
       </c>
-      <c r="E5" s="10" t="n">
+      <c r="E5" s="11" t="n">
         <v>22950</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="8" t="inlineStr">
+      <c r="A6" s="6" t="inlineStr">
         <is>
           <t>Support &amp; Maintenance</t>
         </is>
       </c>
-      <c r="B6" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="C6" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="D6" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="E6" s="10" t="n">
+      <c r="B6" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" s="9" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="14" t="inlineStr">
+      <c r="A7" s="15" t="inlineStr">
         <is>
           <t>TOTAL</t>
         </is>
       </c>
-      <c r="B7" s="15" t="n">
+      <c r="B7" s="16" t="n">
         <v>16563.6</v>
       </c>
-      <c r="C7" s="15" t="n">
+      <c r="C7" s="16" t="n">
         <v>16563.6</v>
       </c>
-      <c r="D7" s="15" t="n">
+      <c r="D7" s="16" t="n">
         <v>16563.6</v>
       </c>
-      <c r="E7" s="15" t="n">
+      <c r="E7" s="16" t="n">
         <v>49690.8</v>
       </c>
     </row>
